--- a/Assignment - 2/Twittter_data.xlsx
+++ b/Assignment - 2/Twittter_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Promact_Courses\Dbms_Assignments\Assignment - 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABEE74CE-FE23-4531-B41C-6DD10772E2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F20F5B-AF9E-4855-8DD6-07D57EB32D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{746FDCD4-71A8-4605-999F-A66B95A2324A}"/>
   </bookViews>
@@ -25,16 +25,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -64,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>userid</t>
   </si>
@@ -129,9 +119,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>followid</t>
   </si>
   <si>
@@ -142,18 +129,6 @@
   </si>
   <si>
     <t>likeid</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -801,7 +776,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -930,7 +905,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -984,13 +959,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -1026,7 +1001,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
